--- a/ActitimeData.xlsx
+++ b/ActitimeData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6bf9db1f43425951/Desktop/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>url</t>
   </si>
@@ -51,12 +51,16 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>Fly High</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A260602F-856C-425A-ABFE-AA9007419E7C}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -433,6 +437,14 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ActitimeData.xlsx
+++ b/ActitimeData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6bf9db1f43425951/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace3\SeleniumAutomationWCSE13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8FAAB4C-7779-4A0F-A135-834BBCF026E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11569B3-EA05-471F-A9BC-CBC564D7B7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADED2972-2149-4995-A20D-7B771AFF364F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>url</t>
   </si>
@@ -60,7 +60,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,12 +408,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -430,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -441,7 +440,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10</v>
+      </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
